--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Strathom.Spring.012320-2.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Strathom.Spring.012320-2.xlsx_with_dialog_acts.xlsx
@@ -807,12 +807,12 @@
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1017,12 +1017,12 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1815,12 +1815,12 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2445,12 +2445,12 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2697,12 +2697,12 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2781,12 +2781,12 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3075,12 +3075,12 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3453,12 +3453,12 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3579,12 +3579,12 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3835,12 +3835,12 @@
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3919,12 +3919,12 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4003,12 +4003,12 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4423,12 +4423,12 @@
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4591,12 +4591,12 @@
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4885,12 +4885,12 @@
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4969,12 +4969,12 @@
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5095,12 +5095,12 @@
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5557,12 +5557,12 @@
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5641,12 +5641,12 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5725,12 +5725,12 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5981,12 +5981,12 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6611,12 +6611,12 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7241,12 +7241,12 @@
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7451,12 +7451,12 @@
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8425,12 +8425,12 @@
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8467,12 +8467,12 @@
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8551,12 +8551,12 @@
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8719,12 +8719,12 @@
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8761,12 +8761,12 @@
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8887,12 +8887,12 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9181,12 +9181,12 @@
       <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9223,12 +9223,12 @@
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9639,12 +9639,12 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10185,12 +10185,12 @@
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10227,12 +10227,12 @@
       <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10437,12 +10437,12 @@
       <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10521,12 +10521,12 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10647,12 +10647,12 @@
       <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10689,12 +10689,12 @@
       <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10773,12 +10773,12 @@
       <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10857,12 +10857,12 @@
       <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10899,12 +10899,12 @@
       <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11067,12 +11067,12 @@
       <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11109,12 +11109,12 @@
       <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11403,12 +11403,12 @@
       <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12073,12 +12073,12 @@
       <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12367,12 +12367,12 @@
       <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
